--- a/HR_CORE_TREC_cleaning_marked_sections.xlsx
+++ b/HR_CORE_TREC_cleaning_marked_sections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vunl-my.sharepoint.com/personal/t_b_van_den_bogaard_vu_nl/Documents/Study 1, HA/Analysis/Analysis REAL/scripts_togit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1849" documentId="13_ncr:1_{3E7DCA7B-2F05-4EF3-84D9-866B58A72AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D0FCA64-7DF3-44D3-9553-7857DE9D297C}"/>
+  <xr:revisionPtr revIDLastSave="1970" documentId="13_ncr:1_{3E7DCA7B-2F05-4EF3-84D9-866B58A72AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDD72BB7-F5B0-4732-8E94-02EE1BBBAE8F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" tabRatio="545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="__DdeLink__303_1062852844">Sheet1!$L$140</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$293</definedName>
+    <definedName name="__DdeLink__303_1062852844">Sheet1!$L$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$297</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -46,7 +46,7 @@
     <author>tc={B47C738C-2776-4619-AC2E-0EEA85CAEA18}</author>
   </authors>
   <commentList>
-    <comment ref="A104" authorId="0" shapeId="0" xr:uid="{5A3F3E6F-5DE9-4395-B99C-51F538083E74}">
+    <comment ref="A108" authorId="0" shapeId="0" xr:uid="{5A3F3E6F-5DE9-4395-B99C-51F538083E74}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -55,7 +55,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="A115" authorId="1" shapeId="0" xr:uid="{B47C738C-2776-4619-AC2E-0EEA85CAEA18}">
+    <comment ref="A119" authorId="1" shapeId="0" xr:uid="{B47C738C-2776-4619-AC2E-0EEA85CAEA18}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="183">
   <si>
     <t>Participant</t>
   </si>
@@ -179,15 +179,9 @@
     <t xml:space="preserve">Sharp drop (0.1 degrees) </t>
   </si>
   <si>
-    <t>Large spike &gt; 30 bpm</t>
-  </si>
-  <si>
     <t xml:space="preserve">Multiple drops, 4 drops all &gt; 10 bpm  </t>
   </si>
   <si>
-    <t xml:space="preserve">Large drop of 45 bpm </t>
-  </si>
-  <si>
     <t>Several peaks and drops. First peak from min 103 to 111 (0.26 degrees) and second one from min 111 to 119 same increase but lower decrease (0.07)</t>
   </si>
   <si>
@@ -230,18 +224,12 @@
     <t>start artifact</t>
   </si>
   <si>
-    <t>HR starts to high during the 15' minute sitting so the first 2 minutes it drops with 26 bpm</t>
-  </si>
-  <si>
     <t>y</t>
   </si>
   <si>
     <t xml:space="preserve">The whole trend of this HR session is weird. During the first 15 minutes sitting HR begins noticeably lower (~50 bpm). During the 30' cycle it stays lower. PP was not able to complete 30' cycle and stopped 3 minutes before due to dizziness. After the 30' cycle PP only sat for one hour. But during this time there are still increases in HR (even to 159 bpm?). PP didn't follow protocol. Not sure if this data is valid. </t>
   </si>
   <si>
-    <t xml:space="preserve">Drop in HR of 15 bpm </t>
-  </si>
-  <si>
     <t xml:space="preserve">HR </t>
   </si>
   <si>
@@ -251,42 +239,27 @@
     <t>This data should be added to the masterfile. Original file is not file of p8 (it is p17), something went wrong with naming. This can be seen from the starttime of Polar watch (07:22, while p8 was in the afternoon). Replaced the file with the right one.</t>
   </si>
   <si>
-    <t xml:space="preserve">Spike in HR of 11 bpm </t>
-  </si>
-  <si>
     <t>There is a sudden drop in HR of 17 bpm after the weighing period</t>
   </si>
   <si>
-    <t xml:space="preserve">Drop in HR of 16 bpm </t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
     <t xml:space="preserve">HR remains lower in the post 30' cycling phase compared to the other days. Participant did not reach 38.5 and sat down from 17.20 to 17.33 due to dizziness. </t>
   </si>
   <si>
-    <t xml:space="preserve">Two spikes during 15' sitting first spike is 15 bpm second spike is 8 bpm </t>
-  </si>
-  <si>
     <t xml:space="preserve">Two drops. In 6 min there is a drop of 0.32 degrees. Then an increase of 0.2 in 2 minutes. Then a drop again of 0.2 degrees in 8 minutes. </t>
   </si>
   <si>
     <t xml:space="preserve">Drop of 20 bpm </t>
   </si>
   <si>
-    <t>Spikey data during 15' sitting, biggest spike from  min 8 to min 13 (26bpm)</t>
-  </si>
-  <si>
     <t xml:space="preserve">y </t>
   </si>
   <si>
     <t xml:space="preserve">Several peaks and drops from min 95 till the end (around 0.3 degrees) </t>
   </si>
   <si>
-    <t xml:space="preserve">Two spikes during 15' sitting first spike is 10 bpm second spike is 15 bpm </t>
-  </si>
-  <si>
     <t xml:space="preserve">From min 38 onwards data is missing </t>
   </si>
   <si>
@@ -317,9 +290,6 @@
     <t xml:space="preserve">I don't think the data from 30' cycle is valid [p11_ha5_CORE, Had to reconnect CORE (16:45 worked again)]. It looks that after 16.45 when the CORE worked again it still took some time for the CORE to measure the correct temperature and if I remember correctly it takes 15 min for the CORE to calibrate/ configurate the CORE. </t>
   </si>
   <si>
-    <t xml:space="preserve">Drop of 14 bpm </t>
-  </si>
-  <si>
     <t>Trec</t>
   </si>
   <si>
@@ -338,12 +308,6 @@
     <t xml:space="preserve">Sudden sharp drop in temperature 0.2 degrees </t>
   </si>
   <si>
-    <t xml:space="preserve">Spike in HR during 15' sitting of 13 bpm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Very very large drop in HR during 30' cycle of 115 bpm </t>
-  </si>
-  <si>
     <t>I don't think we can use the data of the HR after the weighing period. So, from minute 48 on, I suggest replace the data with NaN. [hr not working --&gt; can we see this in the data? --&gt; yes sometimes it works, sometimes realy low (HR = 35)]</t>
   </si>
   <si>
@@ -362,9 +326,6 @@
     <t>Both torso and hand data: Likely a sensor warm-up period or calibration error. Temperature starts at 0 and increases to 37.07.</t>
   </si>
   <si>
-    <t xml:space="preserve">Very large spike (45 bpm) </t>
-  </si>
-  <si>
     <t>No data of first 7 min. [started recording a bit later because HR2 was not connecting so had to switch to HR1.]</t>
   </si>
   <si>
@@ -377,24 +338,12 @@
     <t>Started the recording two minutes later and big spike (20 bpm) after starting recording, so I suggest cutting the data starting from min 9. [HR sensor didn’t sync → watch on wrist → started recording 2 min later.}</t>
   </si>
   <si>
-    <t xml:space="preserve">Large spike (36 bpm) during 15' sitting  </t>
-  </si>
-  <si>
-    <t>HR starts to high at 100 bpm then drops to 59 bpm afterwhich a spike of 20 bpm occurs</t>
-  </si>
-  <si>
-    <t>add it, check if ok</t>
-  </si>
-  <si>
     <t xml:space="preserve">All data of p16 ha1 is missing in the masterfile </t>
   </si>
   <si>
     <t xml:space="preserve">Two spikes during 15' sitting &gt;10bpm </t>
   </si>
   <si>
-    <t xml:space="preserve">Drop in HR of 11 bpm during 30' cycle </t>
-  </si>
-  <si>
     <t>Spikey data after 30' cycle (&gt;10bpm) --&gt; but probably correct because notes say p16 taking a lot of small breaks.</t>
   </si>
   <si>
@@ -407,9 +356,6 @@
     <t>Drop in HR due to lowering power output [cannot keep up with 105W --&gt; changed to 85W]</t>
   </si>
   <si>
-    <t xml:space="preserve">Spike in HR of 11 bpm during 15' sitting </t>
-  </si>
-  <si>
     <t xml:space="preserve">Two drops in HR &gt;10bpm </t>
   </si>
   <si>
@@ -443,12 +389,6 @@
     <t xml:space="preserve">HR is lower after the 30' cycle. This is due to pp leaving the chamber, getting back in and leaving again because of high Tc. </t>
   </si>
   <si>
-    <t xml:space="preserve">Noisy/ spikey data during the first 15 min, two drops of 18 and 30 bpm </t>
-  </si>
-  <si>
-    <t>HR drops the first minute with 19 bpm, so I suggest deleting the first min</t>
-  </si>
-  <si>
     <t xml:space="preserve">Spike of 11 bpm </t>
   </si>
   <si>
@@ -557,9 +497,6 @@
     <t>p23_ha7 core was not right values in the beginning of test, because it was turned on late because of switching to another HR sensor. After approx 15 min normal values HR. --&gt; When plotting data, it looks normal, so not sure what we should do?</t>
   </si>
   <si>
-    <t xml:space="preserve">First min HR drops with 19 bpm </t>
-  </si>
-  <si>
     <t xml:space="preserve">First 20 minutes are missing and minute 20-35 is not valid data, so delete to min 35 </t>
   </si>
   <si>
@@ -609,6 +546,78 @@
   </si>
   <si>
     <t>excluded already</t>
+  </si>
+  <si>
+    <t>Large spike &gt; 30 bpm. ONE SPIKE, OUTSIDE OF THE INTERESTING ZONE (10-15 MIN), LEAVE IT.</t>
+  </si>
+  <si>
+    <t>Large drop of 45 bpm. DATA AROUND = OK SO INTERPOLARE.</t>
+  </si>
+  <si>
+    <t>interpolate</t>
+  </si>
+  <si>
+    <t>HR starts to high during the 15' minute sitting so the first 2 minutes it drops with 26 bpm. NOT INTERESTING ZONE, LEAVE IT (CAN BE DUE TO STUFF OUTSIDE)</t>
+  </si>
+  <si>
+    <t>Drop in HR of 15 bpm. STILL POSSIBLE, LEAVE IT</t>
+  </si>
+  <si>
+    <t>Spike in HR of 11 bpm STILL POSSIBLE, LEAVE IT</t>
+  </si>
+  <si>
+    <t>Drop in HR of 16 bpm   STILL POSSIBLE, LEAVE IT</t>
+  </si>
+  <si>
+    <t>Two spikes during 15' sitting first spike is 15 bpm second spike is 8 bpm STILL POSSIBLE, LEAVE IT</t>
+  </si>
+  <si>
+    <t>Spikey data during 15' sitting, biggest spike from  min 8 to min 13 (26bpm) STILL POSSIBLE, LEAVE IT</t>
+  </si>
+  <si>
+    <t>Two spikes during 15' sitting first spike is 10 bpm second spike is 15 bpm STILL POSSIBLE, LEAVE IT</t>
+  </si>
+  <si>
+    <t>Drop of 14 bpm STILL POSSIBLE, LEAVE IT</t>
+  </si>
+  <si>
+    <t>Spike in HR during 15' sitting of 13 bpm STILL POSSIBLE, LEAVE IT</t>
+  </si>
+  <si>
+    <t>Very very large drop in HR during 30' cycle of 115 bpm. INDEED WEIRD, WE INTERPOLATE</t>
+  </si>
+  <si>
+    <t>Spike during 15' sitting of 12 bpm STILL POSSIBLE, LEAVE IT</t>
+  </si>
+  <si>
+    <t>Very large spike (45 bpm) DON’T SEE IT IN THIS PP</t>
+  </si>
+  <si>
+    <t>no valid data first 17 min (no values first part, last part only same high value)</t>
+  </si>
+  <si>
+    <t>Large spike (36 bpm) during 15' sitting  LEAVE IT, THE EXTREME VALUE WILL BE CUT BY THE OTHER RULES</t>
+  </si>
+  <si>
+    <t>HR starts to high at 100 bpm then drops to 59 bpm afterwhich a spike of 20 bpm occurs. LEAVE IT, THE +100 WILL BE CUT AWAY USING OTHER CLEANING, THE OTHER VALUES CAN JUST AS WELL BE PHYSIOLOGICAL</t>
+  </si>
+  <si>
+    <t>Two spikes during 15' sitting &gt;10bpm LEAVE IT</t>
+  </si>
+  <si>
+    <t>Drop in HR of 11 bpm during 30' cycle leave it</t>
+  </si>
+  <si>
+    <t>Spike in HR of 11 bpm during 15' sitting CAN BE PHYSIOL, LEAVE IT</t>
+  </si>
+  <si>
+    <t>Noisy/ spikey data during the first 15 min, two drops of 18 and 30 bpm. INTERPOLATE FIRST AND SECOND DIP</t>
+  </si>
+  <si>
+    <t>HR drops the first minute with 19 bpm, so I suggest deleting the first min. JUST 1 VALUE, CAN BE AS IS FIRST MEASUREMENT. LEAVE IT</t>
+  </si>
+  <si>
+    <t>First min HR drops with 19 bpm START OF TEST, LOT OF INFLUENCES, ONLY 1 VALUE, LEAVE IT</t>
   </si>
 </sst>
 </file>
@@ -618,7 +627,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,13 +695,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -750,7 +752,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -810,9 +812,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Default 1" xfId="1" xr:uid="{67256422-25D9-459D-98B6-4C75FABDF193}"/>
@@ -1122,11 +1123,11 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A104" dT="2024-12-18T15:49:10.03" personId="{27263FCE-F7B6-40AA-95DB-3B185B52974E}" id="{5A3F3E6F-5DE9-4395-B99C-51F538083E74}">
+  <threadedComment ref="A108" dT="2024-12-18T15:49:10.03" personId="{27263FCE-F7B6-40AA-95DB-3B185B52974E}" id="{5A3F3E6F-5DE9-4395-B99C-51F538083E74}">
     <text xml:space="preserve">p21 &amp; p20 hebben dezelfde HR trend.
 </text>
   </threadedComment>
-  <threadedComment ref="A115" dT="2024-12-18T15:49:10.03" personId="{27263FCE-F7B6-40AA-95DB-3B185B52974E}" id="{B47C738C-2776-4619-AC2E-0EEA85CAEA18}">
+  <threadedComment ref="A119" dT="2024-12-18T15:49:10.03" personId="{27263FCE-F7B6-40AA-95DB-3B185B52974E}" id="{B47C738C-2776-4619-AC2E-0EEA85CAEA18}">
     <text xml:space="preserve">p21 &amp; p20 hebben dezelfde HR trend.
 </text>
   </threadedComment>
@@ -1135,11 +1136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:M293"/>
+  <dimension ref="A1:M300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1197,7 +1197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="21" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="21" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1560,13 +1560,13 @@
         <v>27</v>
       </c>
       <c r="K11" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>16</v>
       </c>
       <c r="L12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -1636,13 +1636,13 @@
         <v>31</v>
       </c>
       <c r="K13" t="s">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1673,10 +1673,10 @@
         <v>16</v>
       </c>
       <c r="L14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1697,16 +1697,16 @@
       <c r="H15"/>
       <c r="I15"/>
       <c r="J15" s="27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K15" t="s">
         <v>16</v>
       </c>
       <c r="L15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16" s="5">
         <v>45316</v>
@@ -1737,10 +1737,10 @@
         <v>16</v>
       </c>
       <c r="L16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1758,16 +1758,16 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" t="s">
+        <v>158</v>
+      </c>
+      <c r="L17" t="s">
         <v>44</v>
-      </c>
-      <c r="J17" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" t="s">
-        <v>179</v>
-      </c>
-      <c r="L17" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -1802,13 +1802,13 @@
         <v>31</v>
       </c>
       <c r="K18" t="s">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>4</v>
       </c>
@@ -1829,13 +1829,13 @@
         <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K19" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -1846,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" s="5">
         <v>45314</v>
@@ -1856,18 +1856,20 @@
       <c r="G20">
         <v>112</v>
       </c>
-      <c r="H20"/>
+      <c r="H20">
+        <v>900</v>
+      </c>
       <c r="I20" t="s">
         <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K20" t="s">
         <v>28</v>
       </c>
       <c r="L20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -1888,18 +1890,20 @@
       <c r="G21">
         <v>112</v>
       </c>
-      <c r="H21"/>
+      <c r="H21">
+        <v>900</v>
+      </c>
       <c r="I21" t="s">
         <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K21" t="s">
         <v>28</v>
       </c>
       <c r="L21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -1931,16 +1935,16 @@
         <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K22" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>7</v>
       </c>
@@ -1958,16 +1962,16 @@
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K23" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="L23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -1998,13 +2002,13 @@
         <v>31</v>
       </c>
       <c r="K24" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>8</v>
       </c>
@@ -2012,7 +2016,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D25" s="5">
         <v>45339</v>
@@ -2023,13 +2027,13 @@
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K25" t="s">
         <v>25</v>
       </c>
       <c r="L25" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -2060,13 +2064,13 @@
         <v>27</v>
       </c>
       <c r="K26" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>8</v>
       </c>
@@ -2095,7 +2099,7 @@
         <v>16</v>
       </c>
       <c r="L27" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -2126,13 +2130,13 @@
         <v>27</v>
       </c>
       <c r="K28" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>8</v>
       </c>
@@ -2151,13 +2155,13 @@
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K29" t="s">
         <v>16</v>
       </c>
       <c r="L29" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -2168,7 +2172,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D30" s="5">
         <v>45362</v>
@@ -2188,13 +2192,13 @@
         <v>27</v>
       </c>
       <c r="K30" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>9</v>
       </c>
@@ -2225,10 +2229,10 @@
         <v>16</v>
       </c>
       <c r="L31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>9</v>
       </c>
@@ -2236,7 +2240,7 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D32" s="5">
         <v>45364</v>
@@ -2259,7 +2263,7 @@
         <v>16</v>
       </c>
       <c r="L32" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -2270,7 +2274,7 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D33" s="5">
         <v>45365</v>
@@ -2290,13 +2294,13 @@
         <v>27</v>
       </c>
       <c r="K33" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>9</v>
       </c>
@@ -2304,7 +2308,7 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D34" s="5">
         <v>45365</v>
@@ -2319,16 +2323,16 @@
         <v>14</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K34" t="s">
         <v>16</v>
       </c>
       <c r="L34" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>9</v>
       </c>
@@ -2348,19 +2352,19 @@
       </c>
       <c r="H35"/>
       <c r="I35" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K35" t="s">
         <v>16</v>
       </c>
       <c r="L35" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>9</v>
       </c>
@@ -2389,7 +2393,7 @@
         <v>16</v>
       </c>
       <c r="L36" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -2400,7 +2404,7 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D37" s="5">
         <v>45369</v>
@@ -2420,13 +2424,13 @@
         <v>27</v>
       </c>
       <c r="K37" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>9</v>
       </c>
@@ -2434,7 +2438,7 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D38" s="5">
         <v>45369</v>
@@ -2449,13 +2453,13 @@
         <v>14</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K38" t="s">
         <v>16</v>
       </c>
       <c r="L38" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -2466,7 +2470,7 @@
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D39" s="5">
         <v>45370</v>
@@ -2486,13 +2490,13 @@
         <v>27</v>
       </c>
       <c r="K39" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L39" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>9</v>
       </c>
@@ -2500,7 +2504,7 @@
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D40" s="5">
         <v>45371</v>
@@ -2517,16 +2521,16 @@
         <v>14</v>
       </c>
       <c r="J40" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="K40" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L40" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>11</v>
       </c>
@@ -2548,19 +2552,19 @@
         <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K41" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>11</v>
       </c>
@@ -2591,7 +2595,7 @@
         <v>16</v>
       </c>
       <c r="L42" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -2622,10 +2626,10 @@
         <v>27</v>
       </c>
       <c r="K43" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L43" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -2656,13 +2660,13 @@
         <v>31</v>
       </c>
       <c r="K44" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L44" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>11</v>
       </c>
@@ -2684,16 +2688,16 @@
         <v>45</v>
       </c>
       <c r="I45" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K45" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L45" s="17" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -2704,26 +2708,30 @@
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D46" s="5">
         <v>45318</v>
       </c>
       <c r="E46"/>
       <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>50</v>
+      </c>
       <c r="I46" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K46" t="s">
         <v>28</v>
       </c>
       <c r="L46" s="23" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -2741,19 +2749,23 @@
       </c>
       <c r="E47"/>
       <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>50</v>
+      </c>
       <c r="I47" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J47" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K47" t="s">
         <v>28</v>
       </c>
       <c r="L47" s="23" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -2784,13 +2796,13 @@
         <v>31</v>
       </c>
       <c r="K48" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L48" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>11</v>
       </c>
@@ -2798,7 +2810,7 @@
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D49" s="5">
         <v>45323</v>
@@ -2813,16 +2825,16 @@
         <v>14</v>
       </c>
       <c r="J49" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K49" t="s">
         <v>16</v>
       </c>
       <c r="L49" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>12</v>
       </c>
@@ -2830,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D50" s="5">
         <v>45314</v>
@@ -2844,19 +2856,19 @@
         <v>28</v>
       </c>
       <c r="I50" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J50" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K50" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="L50" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>12</v>
       </c>
@@ -2864,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D51" s="5">
         <v>45314</v>
@@ -2887,7 +2899,7 @@
         <v>16</v>
       </c>
       <c r="L51" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -2918,10 +2930,10 @@
         <v>27</v>
       </c>
       <c r="K52" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L52" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -2946,19 +2958,19 @@
         <v>42</v>
       </c>
       <c r="I53" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J53" t="s">
         <v>31</v>
       </c>
       <c r="K53" t="s">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c r="L53" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>12</v>
       </c>
@@ -2978,7 +2990,7 @@
       </c>
       <c r="H54"/>
       <c r="I54" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J54" s="27" t="s">
         <v>21</v>
@@ -2987,10 +2999,10 @@
         <v>16</v>
       </c>
       <c r="L54" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>12</v>
       </c>
@@ -2998,7 +3010,7 @@
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D55" s="5">
         <v>45320</v>
@@ -3015,16 +3027,16 @@
         <v>14</v>
       </c>
       <c r="J55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K55" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L55" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>12</v>
       </c>
@@ -3032,7 +3044,7 @@
         <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D56" s="5">
         <v>45322</v>
@@ -3047,16 +3059,16 @@
         <v>14</v>
       </c>
       <c r="J56" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K56" t="s">
         <v>16</v>
       </c>
       <c r="L56" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>12</v>
       </c>
@@ -3064,7 +3076,7 @@
         <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D57" s="5">
         <v>45323</v>
@@ -3079,13 +3091,13 @@
         <v>14</v>
       </c>
       <c r="J57" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K57" t="s">
         <v>16</v>
       </c>
       <c r="L57" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -3096,7 +3108,7 @@
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D58" s="5">
         <v>45318</v>
@@ -3116,13 +3128,13 @@
         <v>27</v>
       </c>
       <c r="K58" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>14</v>
       </c>
@@ -3130,7 +3142,7 @@
         <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D59" s="5">
         <v>45322</v>
@@ -3143,16 +3155,16 @@
         <v>14</v>
       </c>
       <c r="J59" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K59" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="L59" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>14</v>
       </c>
@@ -3160,7 +3172,7 @@
         <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D60" s="5">
         <v>45323</v>
@@ -3173,16 +3185,16 @@
         <v>14</v>
       </c>
       <c r="J60" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K60" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="L60" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>15</v>
       </c>
@@ -3190,7 +3202,7 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D61" s="5">
         <v>45338</v>
@@ -3205,16 +3217,16 @@
         <v>14</v>
       </c>
       <c r="J61" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K61" t="s">
         <v>16</v>
       </c>
       <c r="L61" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>15</v>
       </c>
@@ -3222,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D62" s="5">
         <v>45338</v>
@@ -3236,16 +3248,16 @@
         <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K62" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L62" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -3256,7 +3268,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D63" s="5">
         <v>45339</v>
@@ -3273,13 +3285,13 @@
         <v>14</v>
       </c>
       <c r="J63" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K63" t="s">
         <v>28</v>
       </c>
       <c r="L63" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -3287,67 +3299,67 @@
         <v>15</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D64" s="5">
-        <v>45340</v>
+        <v>45339</v>
       </c>
       <c r="E64"/>
       <c r="F64"/>
       <c r="G64">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I64" t="s">
         <v>14</v>
       </c>
       <c r="J64" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="K64" t="s">
         <v>28</v>
       </c>
       <c r="L64" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>15</v>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D65" s="5">
-        <v>45341</v>
+        <v>45340</v>
       </c>
       <c r="E65"/>
       <c r="F65"/>
       <c r="G65">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H65">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I65" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
-      </c>
-      <c r="K65" s="28" t="s">
-        <v>48</v>
+        <v>31</v>
+      </c>
+      <c r="K65" t="s">
+        <v>18</v>
       </c>
       <c r="L65" t="s">
-        <v>98</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -3358,7 +3370,7 @@
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="D66" s="5">
         <v>45341</v>
@@ -3369,67 +3381,67 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I66" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="J66" t="s">
-        <v>52</v>
-      </c>
-      <c r="K66" t="s">
-        <v>28</v>
+        <v>43</v>
+      </c>
+      <c r="K66" s="28" t="s">
+        <v>46</v>
       </c>
       <c r="L66" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>15</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="D67" s="5">
-        <v>45342</v>
+        <v>45341</v>
       </c>
       <c r="E67"/>
       <c r="F67"/>
       <c r="G67">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="I67" t="s">
         <v>14</v>
       </c>
-      <c r="J67" s="27" t="s">
-        <v>21</v>
+      <c r="J67" t="s">
+        <v>50</v>
       </c>
       <c r="K67" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="L67" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>15</v>
       </c>
       <c r="B68">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D68" s="5">
-        <v>45345</v>
+        <v>45341</v>
       </c>
       <c r="E68"/>
       <c r="F68"/>
@@ -3437,19 +3449,19 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I68" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
-      </c>
-      <c r="K68" s="28" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="K68" t="s">
+        <v>28</v>
       </c>
       <c r="L68" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -3457,33 +3469,31 @@
         <v>15</v>
       </c>
       <c r="B69">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="D69" s="5">
-        <v>45346</v>
+        <v>45341</v>
       </c>
       <c r="E69"/>
       <c r="F69"/>
       <c r="G69">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>14</v>
-      </c>
-      <c r="I69" t="s">
-        <v>14</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I69"/>
       <c r="J69" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="K69" t="s">
         <v>28</v>
       </c>
       <c r="L69" t="s">
-        <v>102</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -3491,110 +3501,123 @@
         <v>15</v>
       </c>
       <c r="B70">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D70" s="5">
-        <v>45347</v>
+        <v>45342</v>
       </c>
       <c r="E70"/>
       <c r="F70"/>
       <c r="G70">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="H70">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I70" t="s">
         <v>14</v>
       </c>
-      <c r="J70" t="s">
-        <v>27</v>
+      <c r="J70" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="K70" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L70" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>53</v>
       </c>
       <c r="D71" s="5">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="E71"/>
       <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="I71"/>
-      <c r="J71" s="29" t="s">
-        <v>58</v>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>9</v>
+      </c>
+      <c r="I71" t="s">
+        <v>61</v>
+      </c>
+      <c r="J71" t="s">
+        <v>43</v>
       </c>
       <c r="K71" s="28" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="L71" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D72" s="5">
-        <v>45338</v>
+        <v>45346</v>
       </c>
       <c r="E72"/>
       <c r="F72"/>
-      <c r="G72"/>
-      <c r="H72"/>
+      <c r="G72">
+        <v>9</v>
+      </c>
+      <c r="H72">
+        <v>14</v>
+      </c>
       <c r="I72" t="s">
-        <v>69</v>
-      </c>
-      <c r="J72" s="30" t="s">
-        <v>74</v>
+        <v>14</v>
+      </c>
+      <c r="J72" t="s">
+        <v>27</v>
       </c>
       <c r="K72" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L72" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B73">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D73" s="5">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="E73"/>
       <c r="F73"/>
       <c r="G73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I73" t="s">
         <v>14</v>
@@ -3603,10 +3626,10 @@
         <v>27</v>
       </c>
       <c r="K73" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L73" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -3614,65 +3637,57 @@
         <v>16</v>
       </c>
       <c r="B74">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="D74" s="5">
-        <v>45346</v>
+        <v>45338</v>
       </c>
       <c r="E74"/>
       <c r="F74"/>
-      <c r="G74">
-        <v>28</v>
-      </c>
-      <c r="H74">
-        <v>30</v>
-      </c>
-      <c r="I74" t="s">
-        <v>14</v>
-      </c>
-      <c r="J74" t="s">
-        <v>31</v>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="K74" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L74" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>16</v>
       </c>
       <c r="B75">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D75" s="5">
-        <v>45346</v>
+        <v>45338</v>
       </c>
       <c r="E75"/>
       <c r="F75"/>
-      <c r="G75">
-        <v>61</v>
-      </c>
+      <c r="G75"/>
       <c r="H75"/>
       <c r="I75" t="s">
-        <v>69</v>
-      </c>
-      <c r="J75" s="27" t="s">
-        <v>21</v>
+        <v>61</v>
+      </c>
+      <c r="J75" s="29" t="s">
+        <v>65</v>
       </c>
       <c r="K75" t="s">
         <v>16</v>
       </c>
       <c r="L75" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -3680,18 +3695,18 @@
         <v>16</v>
       </c>
       <c r="B76">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D76" s="5">
-        <v>45347</v>
-      </c>
-      <c r="E76" s="9"/>
+        <v>45345</v>
+      </c>
+      <c r="E76"/>
       <c r="F76"/>
       <c r="G76">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H76">
         <v>9</v>
@@ -3703,176 +3718,176 @@
         <v>27</v>
       </c>
       <c r="K76" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="L76" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>16</v>
       </c>
       <c r="B77">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D77" s="5">
-        <v>45347</v>
-      </c>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
+        <v>45346</v>
+      </c>
+      <c r="E77"/>
+      <c r="F77"/>
       <c r="G77">
-        <v>29</v>
-      </c>
-      <c r="H77"/>
-      <c r="I77" s="9" t="s">
-        <v>69</v>
+        <v>28</v>
+      </c>
+      <c r="H77">
+        <v>30</v>
+      </c>
+      <c r="I77" t="s">
+        <v>14</v>
       </c>
       <c r="J77" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K77" t="s">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="L77" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D78" s="5">
-        <v>45338</v>
-      </c>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
+        <v>45346</v>
+      </c>
+      <c r="E78"/>
+      <c r="F78"/>
       <c r="G78">
-        <v>4</v>
-      </c>
-      <c r="H78">
-        <v>8</v>
-      </c>
-      <c r="I78" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J78" t="s">
+        <v>61</v>
+      </c>
+      <c r="H78"/>
+      <c r="I78" t="s">
+        <v>61</v>
+      </c>
+      <c r="J78" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K78" t="s">
+        <v>16</v>
+      </c>
+      <c r="L78" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>16</v>
+      </c>
+      <c r="B79">
+        <v>9</v>
+      </c>
+      <c r="C79" t="s">
+        <v>53</v>
+      </c>
+      <c r="D79" s="5">
+        <v>45347</v>
+      </c>
+      <c r="E79" s="9"/>
+      <c r="F79"/>
+      <c r="G79">
+        <v>7</v>
+      </c>
+      <c r="H79">
+        <v>9</v>
+      </c>
+      <c r="I79" t="s">
+        <v>14</v>
+      </c>
+      <c r="J79" t="s">
         <v>27</v>
       </c>
-      <c r="K78" t="s">
-        <v>28</v>
-      </c>
-      <c r="L78" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A79">
-        <v>17</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-      <c r="C79" t="s">
-        <v>57</v>
-      </c>
-      <c r="D79" s="5">
-        <v>45338</v>
-      </c>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79">
-        <v>83</v>
-      </c>
-      <c r="H79">
-        <v>96</v>
-      </c>
-      <c r="I79" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J79" s="27" t="s">
-        <v>21</v>
-      </c>
       <c r="K79" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="L79" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B80">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D80" s="5">
-        <v>45339</v>
+        <v>45347</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="G80">
-        <v>75</v>
-      </c>
-      <c r="H80">
-        <v>90</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="H80"/>
       <c r="I80" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J80" s="27" t="s">
-        <v>21</v>
+        <v>61</v>
+      </c>
+      <c r="J80" t="s">
+        <v>38</v>
       </c>
       <c r="K80" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="L80" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>17</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D81" s="5">
-        <v>45340</v>
-      </c>
-      <c r="E81"/>
+        <v>45338</v>
+      </c>
+      <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81">
-        <v>64</v>
-      </c>
-      <c r="H81"/>
+        <v>4</v>
+      </c>
+      <c r="H81">
+        <v>8</v>
+      </c>
       <c r="I81" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J81" s="27" t="s">
-        <v>21</v>
+      <c r="J81" t="s">
+        <v>27</v>
       </c>
       <c r="K81" t="s">
         <v>16</v>
       </c>
       <c r="L81" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -3880,57 +3895,57 @@
         <v>17</v>
       </c>
       <c r="B82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D82" s="5">
-        <v>45341</v>
-      </c>
-      <c r="E82"/>
-      <c r="F82"/>
+        <v>45338</v>
+      </c>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
       <c r="G82">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="H82">
-        <v>10</v>
-      </c>
-      <c r="I82" t="s">
-        <v>14</v>
-      </c>
-      <c r="J82" t="s">
-        <v>27</v>
+        <v>96</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J82" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="K82" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L82" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>17</v>
       </c>
       <c r="B83">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C83" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D83" s="5">
-        <v>45344</v>
-      </c>
-      <c r="E83"/>
-      <c r="F83"/>
+        <v>45339</v>
+      </c>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
       <c r="G83">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H83">
-        <v>83</v>
-      </c>
-      <c r="I83" t="s">
+        <v>90</v>
+      </c>
+      <c r="I83" s="9" t="s">
         <v>14</v>
       </c>
       <c r="J83" s="27" t="s">
@@ -3940,31 +3955,29 @@
         <v>16</v>
       </c>
       <c r="L83" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>17</v>
       </c>
       <c r="B84">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D84" s="5">
-        <v>45345</v>
+        <v>45340</v>
       </c>
       <c r="E84"/>
-      <c r="F84"/>
+      <c r="F84" s="9"/>
       <c r="G84">
-        <v>81</v>
-      </c>
-      <c r="H84">
-        <v>84</v>
-      </c>
-      <c r="I84" t="s">
+        <v>64</v>
+      </c>
+      <c r="H84"/>
+      <c r="I84" s="9" t="s">
         <v>14</v>
       </c>
       <c r="J84" s="27" t="s">
@@ -3974,7 +3987,7 @@
         <v>16</v>
       </c>
       <c r="L84" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -3982,21 +3995,21 @@
         <v>17</v>
       </c>
       <c r="B85">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D85" s="5">
-        <v>45346</v>
+        <v>45341</v>
       </c>
       <c r="E85"/>
       <c r="F85"/>
       <c r="G85">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H85">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I85" t="s">
         <v>14</v>
@@ -4005,10 +4018,10 @@
         <v>27</v>
       </c>
       <c r="K85" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L85" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -4016,79 +4029,81 @@
         <v>17</v>
       </c>
       <c r="B86">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D86" s="5">
-        <v>45347</v>
+        <v>45344</v>
       </c>
       <c r="E86"/>
       <c r="F86"/>
       <c r="G86">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H86">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="I86" t="s">
         <v>14</v>
       </c>
-      <c r="J86" t="s">
-        <v>27</v>
+      <c r="J86" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="K86" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L86" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="D87" s="5">
-        <v>45362</v>
+        <v>45345</v>
       </c>
       <c r="E87"/>
       <c r="F87"/>
       <c r="G87">
-        <v>48</v>
-      </c>
-      <c r="H87"/>
+        <v>81</v>
+      </c>
+      <c r="H87">
+        <v>84</v>
+      </c>
       <c r="I87" t="s">
-        <v>69</v>
-      </c>
-      <c r="J87" t="s">
-        <v>120</v>
+        <v>14</v>
+      </c>
+      <c r="J87" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="K87" t="s">
         <v>16</v>
       </c>
       <c r="L87" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D88" s="5">
-        <v>45362</v>
+        <v>45346</v>
       </c>
       <c r="E88"/>
       <c r="F88"/>
@@ -4096,49 +4111,53 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I88" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="J88" t="s">
-        <v>74</v>
-      </c>
-      <c r="K88" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="L88" s="18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="K88" t="s">
+        <v>16</v>
+      </c>
+      <c r="L88" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D89" s="5">
-        <v>45362</v>
+        <v>45347</v>
       </c>
       <c r="E89"/>
       <c r="F89"/>
-      <c r="G89"/>
-      <c r="H89"/>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>15</v>
+      </c>
       <c r="I89" t="s">
-        <v>69</v>
-      </c>
-      <c r="J89" s="27" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="J89" t="s">
+        <v>27</v>
       </c>
       <c r="K89" t="s">
         <v>16</v>
       </c>
-      <c r="L89" s="18" t="s">
-        <v>123</v>
+      <c r="L89" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -4146,33 +4165,31 @@
         <v>18</v>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D90" s="5">
-        <v>45364</v>
+        <v>45362</v>
       </c>
       <c r="E90"/>
       <c r="F90"/>
       <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>15</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="H90"/>
       <c r="I90" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="J90" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="K90" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L90" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -4180,13 +4197,13 @@
         <v>18</v>
       </c>
       <c r="B91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D91" s="5">
-        <v>45365</v>
+        <v>45362</v>
       </c>
       <c r="E91"/>
       <c r="F91"/>
@@ -4194,87 +4211,83 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I91" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="J91" t="s">
-        <v>27</v>
-      </c>
-      <c r="K91" t="s">
-        <v>28</v>
-      </c>
-      <c r="L91" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+      <c r="K91" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="L91" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>18</v>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D92" s="5">
-        <v>45365</v>
+        <v>45362</v>
       </c>
       <c r="E92"/>
       <c r="F92"/>
-      <c r="G92">
-        <v>64</v>
-      </c>
-      <c r="H92">
-        <v>66</v>
-      </c>
+      <c r="G92"/>
+      <c r="H92"/>
       <c r="I92" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="J92" s="27" t="s">
         <v>21</v>
       </c>
       <c r="K92" t="s">
-        <v>18</v>
-      </c>
-      <c r="L92" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="L92" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>18</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D93" s="5">
-        <v>45365</v>
-      </c>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="24">
-        <v>80</v>
-      </c>
-      <c r="H93" s="24">
-        <v>90</v>
-      </c>
-      <c r="I93" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J93" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K93" s="9" t="s">
-        <v>18</v>
+        <v>45364</v>
+      </c>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93">
+        <v>5</v>
+      </c>
+      <c r="H93">
+        <v>7</v>
+      </c>
+      <c r="I93" t="s">
+        <v>14</v>
+      </c>
+      <c r="J93" t="s">
+        <v>27</v>
+      </c>
+      <c r="K93" t="s">
+        <v>161</v>
       </c>
       <c r="L93" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -4282,21 +4295,21 @@
         <v>18</v>
       </c>
       <c r="B94">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D94" s="5">
-        <v>45371</v>
+        <v>45364</v>
       </c>
       <c r="E94"/>
       <c r="F94"/>
       <c r="G94">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H94">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I94" t="s">
         <v>14</v>
@@ -4305,126 +4318,126 @@
         <v>27</v>
       </c>
       <c r="K94" t="s">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c r="L94" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>18</v>
       </c>
       <c r="B95">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D95" s="5">
-        <v>45371</v>
+        <v>45365</v>
       </c>
       <c r="E95"/>
       <c r="F95"/>
       <c r="G95">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="I95" t="s">
         <v>14</v>
       </c>
       <c r="J95" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="K95" t="s">
         <v>18</v>
       </c>
       <c r="L95" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D96" s="5">
-        <v>45362</v>
+        <v>45365</v>
       </c>
       <c r="E96"/>
       <c r="F96"/>
       <c r="G96">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="H96">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="I96" t="s">
         <v>14</v>
       </c>
-      <c r="J96" t="s">
-        <v>27</v>
+      <c r="J96" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="K96" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L96" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D97" s="5">
-        <v>45363</v>
-      </c>
-      <c r="E97"/>
-      <c r="F97"/>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>3</v>
-      </c>
-      <c r="I97" t="s">
-        <v>14</v>
-      </c>
-      <c r="J97" t="s">
-        <v>27</v>
-      </c>
-      <c r="K97" t="s">
-        <v>28</v>
+        <v>45365</v>
+      </c>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="24">
+        <v>80</v>
+      </c>
+      <c r="H97" s="24">
+        <v>90</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K97" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="L97" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B98">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D98" s="5">
-        <v>45364</v>
+        <v>45371</v>
       </c>
       <c r="E98"/>
       <c r="F98"/>
@@ -4432,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I98" t="s">
         <v>14</v>
@@ -4440,43 +4453,45 @@
       <c r="J98" t="s">
         <v>27</v>
       </c>
-      <c r="K98" t="s">
-        <v>28</v>
+      <c r="K98" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="L98" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B99">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="D99" s="5">
-        <v>45364</v>
+        <v>45371</v>
       </c>
       <c r="E99"/>
       <c r="F99"/>
       <c r="G99">
-        <v>50</v>
-      </c>
-      <c r="H99"/>
+        <v>45</v>
+      </c>
+      <c r="H99">
+        <v>52</v>
+      </c>
       <c r="I99" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="J99" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="K99" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L99" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -4484,21 +4499,21 @@
         <v>19</v>
       </c>
       <c r="B100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D100" s="5">
-        <v>45366</v>
+        <v>45362</v>
       </c>
       <c r="E100"/>
       <c r="F100"/>
       <c r="G100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H100">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I100" t="s">
         <v>14</v>
@@ -4507,10 +4522,10 @@
         <v>27</v>
       </c>
       <c r="K100" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L100" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -4518,21 +4533,21 @@
         <v>19</v>
       </c>
       <c r="B101">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C101" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D101" s="5">
-        <v>45368</v>
+        <v>45363</v>
       </c>
       <c r="E101"/>
       <c r="F101"/>
       <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
         <v>3</v>
-      </c>
-      <c r="H101">
-        <v>12</v>
       </c>
       <c r="I101" t="s">
         <v>14</v>
@@ -4541,10 +4556,10 @@
         <v>27</v>
       </c>
       <c r="K101" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L101" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -4552,13 +4567,13 @@
         <v>19</v>
       </c>
       <c r="B102">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C102" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D102" s="5">
-        <v>45370</v>
+        <v>45364</v>
       </c>
       <c r="E102"/>
       <c r="F102"/>
@@ -4566,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I102" t="s">
         <v>14</v>
@@ -4578,7 +4593,7 @@
         <v>28</v>
       </c>
       <c r="L102" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -4586,55 +4601,53 @@
         <v>19</v>
       </c>
       <c r="B103">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="D103" s="5">
-        <v>45371</v>
+        <v>45364</v>
       </c>
       <c r="E103"/>
       <c r="F103"/>
       <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103">
+        <v>50</v>
+      </c>
+      <c r="H103"/>
+      <c r="I103" t="s">
+        <v>114</v>
+      </c>
+      <c r="J103" t="s">
         <v>15</v>
       </c>
-      <c r="I103" t="s">
-        <v>134</v>
-      </c>
-      <c r="J103" t="s">
-        <v>27</v>
-      </c>
       <c r="K103" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L103" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D104" s="5">
-        <v>45362</v>
+        <v>45366</v>
       </c>
       <c r="E104"/>
       <c r="F104"/>
       <c r="G104">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I104" t="s">
         <v>14</v>
@@ -4643,140 +4656,146 @@
         <v>27</v>
       </c>
       <c r="K104" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L104" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D105" s="5">
-        <v>45362</v>
+        <v>45368</v>
       </c>
       <c r="E105"/>
       <c r="F105"/>
       <c r="G105">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="H105">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I105" t="s">
         <v>14</v>
       </c>
-      <c r="J105" s="9" t="s">
-        <v>21</v>
+      <c r="J105" t="s">
+        <v>27</v>
       </c>
       <c r="K105" t="s">
         <v>16</v>
       </c>
       <c r="L105" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D106" s="5">
-        <v>45362</v>
+        <v>45370</v>
       </c>
       <c r="E106"/>
       <c r="F106"/>
-      <c r="G106"/>
-      <c r="H106"/>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>15</v>
+      </c>
       <c r="I106" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="J106" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="K106" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L106" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D107" s="5">
-        <v>45363</v>
-      </c>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
+        <v>45371</v>
+      </c>
+      <c r="E107"/>
+      <c r="F107"/>
       <c r="G107">
-        <v>56</v>
-      </c>
-      <c r="H107"/>
-      <c r="I107" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J107" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K107" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>15</v>
+      </c>
+      <c r="I107" t="s">
+        <v>114</v>
+      </c>
+      <c r="J107" t="s">
+        <v>27</v>
+      </c>
+      <c r="K107" t="s">
         <v>16</v>
       </c>
       <c r="L107" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>20</v>
       </c>
       <c r="B108">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="D108" s="5">
-        <v>45365</v>
-      </c>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
+        <v>45362</v>
+      </c>
+      <c r="E108"/>
+      <c r="F108"/>
       <c r="G108">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="H108">
-        <v>50</v>
-      </c>
-      <c r="I108" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I108" t="s">
         <v>14</v>
       </c>
       <c r="J108" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="K108" t="s">
         <v>16</v>
       </c>
       <c r="L108" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -4784,67 +4803,63 @@
         <v>20</v>
       </c>
       <c r="B109">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D109" s="5">
-        <v>45366</v>
+        <v>45362</v>
       </c>
       <c r="E109"/>
       <c r="F109"/>
       <c r="G109">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="H109">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="I109" t="s">
         <v>14</v>
       </c>
-      <c r="J109" t="s">
-        <v>27</v>
+      <c r="J109" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="K109" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L109" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>20</v>
       </c>
       <c r="B110">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D110" s="5">
-        <v>45366</v>
+        <v>45362</v>
       </c>
       <c r="E110"/>
       <c r="F110"/>
-      <c r="G110">
-        <v>75</v>
-      </c>
-      <c r="H110">
-        <v>87</v>
-      </c>
+      <c r="G110"/>
+      <c r="H110"/>
       <c r="I110" t="s">
-        <v>14</v>
-      </c>
-      <c r="J110" s="9" t="s">
-        <v>21</v>
+        <v>61</v>
+      </c>
+      <c r="J110" t="s">
+        <v>43</v>
       </c>
       <c r="K110" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L110" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -4852,33 +4867,31 @@
         <v>20</v>
       </c>
       <c r="B111">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D111" s="5">
-        <v>45368</v>
-      </c>
-      <c r="E111"/>
-      <c r="F111"/>
+        <v>45363</v>
+      </c>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
       <c r="G111">
-        <v>0</v>
-      </c>
-      <c r="H111">
-        <v>3</v>
-      </c>
-      <c r="I111" t="s">
-        <v>14</v>
-      </c>
-      <c r="J111" t="s">
-        <v>52</v>
-      </c>
-      <c r="K111" t="s">
-        <v>28</v>
+        <v>56</v>
+      </c>
+      <c r="H111"/>
+      <c r="I111" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J111" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K111" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="L111" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -4886,33 +4899,33 @@
         <v>20</v>
       </c>
       <c r="B112">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D112" s="5">
-        <v>45370</v>
-      </c>
-      <c r="E112" s="10"/>
+        <v>45365</v>
+      </c>
+      <c r="E112" s="9"/>
       <c r="F112" s="9"/>
       <c r="G112">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H112">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I112" s="9" t="s">
         <v>14</v>
       </c>
       <c r="J112" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="K112" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L112" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -4920,21 +4933,21 @@
         <v>20</v>
       </c>
       <c r="B113">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D113" s="5">
-        <v>45371</v>
+        <v>45366</v>
       </c>
       <c r="E113"/>
       <c r="F113"/>
       <c r="G113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H113">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I113" t="s">
         <v>14</v>
@@ -4943,32 +4956,32 @@
         <v>27</v>
       </c>
       <c r="K113" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L113" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>20</v>
       </c>
       <c r="B114">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D114" s="5">
-        <v>45371</v>
+        <v>45366</v>
       </c>
       <c r="E114"/>
       <c r="F114"/>
       <c r="G114">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="H114">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="I114" t="s">
         <v>14</v>
@@ -4980,122 +4993,131 @@
         <v>16</v>
       </c>
       <c r="L114" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D115" s="5">
-        <v>45362</v>
+        <v>45368</v>
       </c>
       <c r="E115"/>
       <c r="F115"/>
       <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>3</v>
+      </c>
+      <c r="I115" t="s">
+        <v>14</v>
+      </c>
+      <c r="J115" t="s">
+        <v>50</v>
+      </c>
+      <c r="K115" t="s">
+        <v>16</v>
+      </c>
+      <c r="L115" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>20</v>
+      </c>
+      <c r="B116">
         <v>8</v>
       </c>
-      <c r="H115">
-        <v>10</v>
-      </c>
-      <c r="I115" t="s">
-        <v>14</v>
-      </c>
-      <c r="J115" t="s">
-        <v>27</v>
-      </c>
-      <c r="K115" t="s">
-        <v>28</v>
-      </c>
-      <c r="L115" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A116">
-        <v>21</v>
-      </c>
-      <c r="B116">
-        <v>1</v>
-      </c>
       <c r="C116" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D116" s="5">
-        <v>45362</v>
-      </c>
-      <c r="E116"/>
-      <c r="F116"/>
+        <v>45370</v>
+      </c>
+      <c r="E116" s="10"/>
+      <c r="F116" s="9"/>
       <c r="G116">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>89</v>
-      </c>
-      <c r="I116" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="I116" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J116" t="s">
+        <v>50</v>
+      </c>
+      <c r="K116" t="s">
+        <v>16</v>
+      </c>
+      <c r="L116" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D117" s="5">
-        <v>45363</v>
+        <v>45371</v>
       </c>
       <c r="E117"/>
       <c r="F117"/>
       <c r="G117">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H117">
+        <v>9</v>
+      </c>
+      <c r="I117" t="s">
+        <v>14</v>
+      </c>
+      <c r="J117" t="s">
+        <v>27</v>
+      </c>
+      <c r="K117" t="s">
+        <v>16</v>
+      </c>
+      <c r="L117" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A118">
         <v>20</v>
       </c>
-      <c r="I117" t="s">
-        <v>14</v>
-      </c>
-      <c r="J117" t="s">
-        <v>31</v>
-      </c>
-      <c r="K117" t="s">
-        <v>28</v>
-      </c>
-      <c r="L117" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A118">
-        <v>21</v>
-      </c>
       <c r="B118">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D118" s="5">
-        <v>45363</v>
+        <v>45371</v>
       </c>
       <c r="E118"/>
       <c r="F118"/>
       <c r="G118">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="H118">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I118" t="s">
         <v>14</v>
@@ -5107,39 +5129,41 @@
         <v>16</v>
       </c>
       <c r="L118" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>21</v>
       </c>
       <c r="B119">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D119" s="5">
-        <v>45369</v>
-      </c>
-      <c r="G119" s="24">
-        <v>0</v>
-      </c>
-      <c r="H119" s="24">
-        <v>15</v>
-      </c>
-      <c r="I119" s="11" t="s">
+        <v>45362</v>
+      </c>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119">
+        <v>8</v>
+      </c>
+      <c r="H119">
+        <v>10</v>
+      </c>
+      <c r="I119" t="s">
         <v>14</v>
       </c>
       <c r="J119" t="s">
-        <v>45</v>
-      </c>
-      <c r="K119" s="31" t="s">
-        <v>48</v>
+        <v>27</v>
+      </c>
+      <c r="K119" t="s">
+        <v>28</v>
       </c>
       <c r="L119" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -5147,31 +5171,27 @@
         <v>21</v>
       </c>
       <c r="B120">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D120" s="5">
-        <v>45370</v>
-      </c>
-      <c r="G120" s="24">
-        <v>0</v>
-      </c>
-      <c r="H120" s="24">
-        <v>8</v>
-      </c>
-      <c r="I120" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J120" t="s">
-        <v>74</v>
+        <v>45362</v>
+      </c>
+      <c r="E120"/>
+      <c r="F120"/>
+      <c r="G120">
+        <v>86</v>
+      </c>
+      <c r="H120">
+        <v>89</v>
+      </c>
+      <c r="I120" t="s">
+        <v>14</v>
       </c>
       <c r="K120" t="s">
-        <v>28</v>
-      </c>
-      <c r="L120" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -5179,178 +5199,191 @@
         <v>21</v>
       </c>
       <c r="B121">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C121" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D121" s="5">
-        <v>45371</v>
-      </c>
-      <c r="G121" s="24">
-        <v>7</v>
-      </c>
-      <c r="H121" s="24">
-        <v>9</v>
-      </c>
-      <c r="I121" s="11" t="s">
+        <v>45363</v>
+      </c>
+      <c r="E121"/>
+      <c r="F121"/>
+      <c r="G121">
+        <v>16</v>
+      </c>
+      <c r="H121">
+        <v>20</v>
+      </c>
+      <c r="I121" t="s">
         <v>14</v>
       </c>
       <c r="J121" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K121" t="s">
         <v>28</v>
       </c>
       <c r="L121" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D122" s="5">
-        <v>45362</v>
-      </c>
-      <c r="G122" s="24"/>
-      <c r="H122" s="24"/>
-      <c r="I122" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="J122" t="s">
-        <v>151</v>
+        <v>45363</v>
+      </c>
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122">
+        <v>80</v>
+      </c>
+      <c r="H122">
+        <v>83</v>
+      </c>
+      <c r="I122" t="s">
+        <v>14</v>
+      </c>
+      <c r="J122" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="K122" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L122" t="s">
-        <v>170</v>
+        <v>99</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D123" s="5">
-        <v>45362</v>
+        <v>45369</v>
       </c>
       <c r="G123" s="24">
         <v>0</v>
       </c>
       <c r="H123" s="24">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I123" s="11" t="s">
         <v>14</v>
       </c>
       <c r="J123" t="s">
-        <v>52</v>
-      </c>
-      <c r="K123" t="s">
-        <v>28</v>
+        <v>43</v>
+      </c>
+      <c r="K123" s="30" t="s">
+        <v>46</v>
       </c>
       <c r="L123" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A124">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D124" s="5">
-        <v>45363</v>
+        <v>45370</v>
       </c>
       <c r="G124" s="24">
-        <v>49</v>
-      </c>
-      <c r="H124" s="24"/>
+        <v>0</v>
+      </c>
+      <c r="H124" s="24">
+        <v>8</v>
+      </c>
+      <c r="I124" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="J124" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="K124" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="L124" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A125">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B125">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="D125" s="5">
-        <v>45363</v>
-      </c>
-      <c r="G125" s="24"/>
-      <c r="H125" s="24"/>
+        <v>45371</v>
+      </c>
+      <c r="G125" s="24">
+        <v>7</v>
+      </c>
+      <c r="H125" s="24">
+        <v>9</v>
+      </c>
       <c r="I125" s="11" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="J125" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="K125" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L125" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="D126" s="5">
-        <v>45364</v>
-      </c>
-      <c r="G126" s="24">
-        <v>0</v>
-      </c>
-      <c r="H126" s="24">
-        <v>3</v>
-      </c>
+        <v>45362</v>
+      </c>
+      <c r="G126" s="24"/>
+      <c r="H126" s="24"/>
       <c r="I126" s="11" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="J126" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="K126" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L126" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -5358,31 +5391,31 @@
         <v>23</v>
       </c>
       <c r="B127">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D127" s="5">
-        <v>45366</v>
+        <v>45362</v>
       </c>
       <c r="G127" s="24">
         <v>0</v>
       </c>
       <c r="H127" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I127" s="11" t="s">
         <v>14</v>
       </c>
       <c r="J127" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K127" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L127" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -5390,31 +5423,26 @@
         <v>23</v>
       </c>
       <c r="B128">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C128" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D128" s="5">
-        <v>45368</v>
+        <v>45363</v>
       </c>
       <c r="G128" s="24">
-        <v>0</v>
-      </c>
-      <c r="H128" s="24">
-        <v>3</v>
-      </c>
-      <c r="I128" s="11" t="s">
-        <v>14</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H128" s="24"/>
       <c r="J128" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="K128" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L128" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -5422,31 +5450,27 @@
         <v>23</v>
       </c>
       <c r="B129">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C129" t="s">
+        <v>81</v>
+      </c>
+      <c r="D129" s="5">
+        <v>45363</v>
+      </c>
+      <c r="G129" s="24"/>
+      <c r="H129" s="24"/>
+      <c r="I129" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J129" t="s">
         <v>57</v>
       </c>
-      <c r="D129" s="5">
-        <v>45369</v>
-      </c>
-      <c r="G129" s="24">
-        <v>0</v>
-      </c>
-      <c r="H129" s="24">
-        <v>59</v>
-      </c>
-      <c r="I129" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="J129" t="s">
-        <v>45</v>
-      </c>
       <c r="K129" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L129" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -5454,13 +5478,13 @@
         <v>23</v>
       </c>
       <c r="B130">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C130" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="D130" s="5">
-        <v>45369</v>
+        <v>45364</v>
       </c>
       <c r="G130" s="24">
         <v>0</v>
@@ -5469,854 +5493,1072 @@
         <v>3</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="J130" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K130" t="s">
         <v>28</v>
       </c>
       <c r="L130" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>23</v>
       </c>
       <c r="B131">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C131" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="D131" s="5">
-        <v>45369</v>
-      </c>
-      <c r="G131" s="24"/>
-      <c r="H131" s="24"/>
+        <v>45364</v>
+      </c>
+      <c r="G131" s="24">
+        <v>0</v>
+      </c>
+      <c r="H131" s="24">
+        <v>3</v>
+      </c>
       <c r="I131" s="11" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="J131" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="K131" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="L131" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A132">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D132" s="5">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="G132" s="24">
         <v>0</v>
       </c>
       <c r="H132" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="J132" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K132" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L132" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A133">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B133">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D133" s="5">
-        <v>45365</v>
+        <v>45368</v>
       </c>
       <c r="G133" s="24">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="H133" s="24">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="I133" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="J133" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="J133" t="s">
+        <v>50</v>
       </c>
       <c r="K133" t="s">
         <v>16</v>
       </c>
       <c r="L133" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A134">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B134">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D134" s="5">
-        <v>45366</v>
+        <v>45369</v>
       </c>
       <c r="G134" s="24">
         <v>0</v>
       </c>
       <c r="H134" s="24">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J134" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K134" t="s">
+        <v>16</v>
+      </c>
+      <c r="L134" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>23</v>
+      </c>
+      <c r="B135">
+        <v>7</v>
+      </c>
+      <c r="C135" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" s="5">
+        <v>45369</v>
+      </c>
+      <c r="G135" s="24">
+        <v>0</v>
+      </c>
+      <c r="H135" s="24">
+        <v>3</v>
+      </c>
+      <c r="I135" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J135" t="s">
+        <v>50</v>
+      </c>
+      <c r="K135" t="s">
         <v>28</v>
       </c>
-      <c r="L134" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A135">
-        <v>25</v>
-      </c>
-      <c r="B135">
-        <v>5</v>
-      </c>
-      <c r="C135" t="s">
-        <v>57</v>
-      </c>
-      <c r="D135" s="5">
-        <v>45366</v>
-      </c>
-      <c r="G135" s="24">
-        <v>73</v>
-      </c>
-      <c r="H135" s="24"/>
-      <c r="I135" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="J135" t="s">
-        <v>63</v>
-      </c>
-      <c r="K135" t="s">
-        <v>16</v>
-      </c>
       <c r="L135" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A136">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B136">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D136" s="5">
-        <v>45366</v>
+        <v>45369</v>
       </c>
       <c r="G136" s="24">
         <v>0</v>
       </c>
       <c r="H136" s="24">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="J136" t="s">
-        <v>165</v>
+        <v>50</v>
       </c>
       <c r="K136" t="s">
         <v>28</v>
       </c>
-      <c r="L136" s="23" t="s">
-        <v>166</v>
+      <c r="L136" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A137">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B137">
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D137" s="5">
         <v>45369</v>
       </c>
-      <c r="G137" s="24">
-        <v>3</v>
-      </c>
-      <c r="H137" s="24">
-        <v>8</v>
-      </c>
+      <c r="G137" s="24"/>
+      <c r="H137" s="24"/>
       <c r="I137" s="11" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="J137" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="K137" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L137" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>25</v>
       </c>
       <c r="B138">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D138" s="5">
-        <v>45371</v>
-      </c>
-      <c r="E138" s="6"/>
+        <v>45365</v>
+      </c>
       <c r="G138" s="24">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="H138" s="24">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="J138" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="K138" t="s">
         <v>16</v>
       </c>
       <c r="L138" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>25</v>
       </c>
       <c r="B139">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C139" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D139" s="5">
-        <v>45371</v>
+        <v>45365</v>
       </c>
       <c r="G139" s="24">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="H139" s="24">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="J139" t="s">
+        <v>114</v>
+      </c>
+      <c r="J139" s="9" t="s">
         <v>21</v>
       </c>
       <c r="K139" t="s">
         <v>16</v>
       </c>
       <c r="L139" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>25</v>
       </c>
       <c r="B140">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
-        <v>13</v>
-      </c>
-      <c r="D140" s="25">
-        <v>45371</v>
-      </c>
-      <c r="E140" s="6"/>
-      <c r="F140" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="D140" s="5">
+        <v>45366</v>
+      </c>
       <c r="G140" s="24">
         <v>0</v>
       </c>
       <c r="H140" s="24">
+        <v>35</v>
+      </c>
+      <c r="I140" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J140" t="s">
+        <v>43</v>
+      </c>
+      <c r="K140" t="s">
+        <v>28</v>
+      </c>
+      <c r="L140" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>25</v>
+      </c>
+      <c r="B141">
+        <v>5</v>
+      </c>
+      <c r="C141" t="s">
+        <v>53</v>
+      </c>
+      <c r="D141" s="5">
+        <v>45366</v>
+      </c>
+      <c r="G141" s="24">
+        <v>73</v>
+      </c>
+      <c r="H141" s="24"/>
+      <c r="I141" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J141" t="s">
+        <v>57</v>
+      </c>
+      <c r="K141" t="s">
+        <v>16</v>
+      </c>
+      <c r="L141" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>25</v>
+      </c>
+      <c r="B142">
+        <v>5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>113</v>
+      </c>
+      <c r="D142" s="5">
+        <v>45366</v>
+      </c>
+      <c r="G142" s="24">
+        <v>0</v>
+      </c>
+      <c r="H142" s="24">
+        <v>29</v>
+      </c>
+      <c r="I142" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J142" t="s">
+        <v>144</v>
+      </c>
+      <c r="K142" t="s">
+        <v>28</v>
+      </c>
+      <c r="L142" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>25</v>
+      </c>
+      <c r="B143">
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>13</v>
+      </c>
+      <c r="D143" s="5">
+        <v>45366</v>
+      </c>
+      <c r="G143" s="24">
+        <v>0</v>
+      </c>
+      <c r="H143" s="24">
+        <v>29</v>
+      </c>
+      <c r="I143" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J143" t="s">
+        <v>144</v>
+      </c>
+      <c r="K143" t="s">
+        <v>28</v>
+      </c>
+      <c r="L143" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>25</v>
+      </c>
+      <c r="B144">
+        <v>7</v>
+      </c>
+      <c r="C144" t="s">
+        <v>53</v>
+      </c>
+      <c r="D144" s="5">
+        <v>45369</v>
+      </c>
+      <c r="G144" s="24">
+        <v>3</v>
+      </c>
+      <c r="H144" s="24">
+        <v>8</v>
+      </c>
+      <c r="I144" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J144" t="s">
+        <v>27</v>
+      </c>
+      <c r="K144" t="s">
+        <v>16</v>
+      </c>
+      <c r="L144" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>25</v>
+      </c>
+      <c r="B145">
+        <v>9</v>
+      </c>
+      <c r="C145" t="s">
+        <v>53</v>
+      </c>
+      <c r="D145" s="5">
+        <v>45371</v>
+      </c>
+      <c r="E145" s="6"/>
+      <c r="G145" s="24">
+        <v>79</v>
+      </c>
+      <c r="H145" s="24">
+        <v>82</v>
+      </c>
+      <c r="I145" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J145" t="s">
+        <v>21</v>
+      </c>
+      <c r="K145" t="s">
+        <v>16</v>
+      </c>
+      <c r="L145" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>25</v>
+      </c>
+      <c r="B146">
+        <v>9</v>
+      </c>
+      <c r="C146" t="s">
+        <v>53</v>
+      </c>
+      <c r="D146" s="5">
+        <v>45371</v>
+      </c>
+      <c r="G146" s="24">
+        <v>111</v>
+      </c>
+      <c r="H146" s="24">
+        <v>113</v>
+      </c>
+      <c r="I146" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J146" t="s">
+        <v>21</v>
+      </c>
+      <c r="K146" t="s">
+        <v>16</v>
+      </c>
+      <c r="L146" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>25</v>
+      </c>
+      <c r="B147">
+        <v>9</v>
+      </c>
+      <c r="C147" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147" s="25">
+        <v>45371</v>
+      </c>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="24">
+        <v>0</v>
+      </c>
+      <c r="H147" s="24">
         <v>90</v>
       </c>
-      <c r="I140" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J140" t="s">
-        <v>169</v>
-      </c>
-      <c r="K140" t="s">
-        <v>16</v>
-      </c>
-      <c r="L140" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D141" s="5"/>
-      <c r="E141" s="6"/>
-      <c r="F141" s="6"/>
-      <c r="I141" s="6"/>
-    </row>
-    <row r="142" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D142" s="5"/>
-    </row>
-    <row r="143" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D143" s="5"/>
-    </row>
-    <row r="144" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D144" s="5"/>
-    </row>
-    <row r="145" spans="4:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D145" s="5"/>
-    </row>
-    <row r="146" spans="4:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D146" s="5"/>
-    </row>
-    <row r="147" spans="4:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D147" s="5"/>
-    </row>
-    <row r="148" spans="4:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I147" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J147" t="s">
+        <v>148</v>
+      </c>
+      <c r="K147" t="s">
+        <v>16</v>
+      </c>
+      <c r="L147" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D148" s="5"/>
-    </row>
-    <row r="149" spans="4:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E148" s="6"/>
+      <c r="F148" s="6"/>
+      <c r="I148" s="6"/>
+    </row>
+    <row r="149" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D149" s="5"/>
     </row>
-    <row r="150" spans="4:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D150" s="5"/>
     </row>
-    <row r="151" spans="4:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D151" s="5"/>
     </row>
-    <row r="152" spans="4:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D152" s="5"/>
     </row>
-    <row r="153" spans="4:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D153" s="5"/>
     </row>
-    <row r="154" spans="4:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D154" s="5"/>
     </row>
-    <row r="155" spans="4:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D155" s="5"/>
     </row>
-    <row r="156" spans="4:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D156" s="5"/>
-      <c r="F156" s="6"/>
-      <c r="I156" s="6"/>
-    </row>
-    <row r="157" spans="4:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="157" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D157" s="5"/>
     </row>
-    <row r="158" spans="4:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D158" s="5"/>
     </row>
-    <row r="159" spans="4:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D159" s="5"/>
     </row>
-    <row r="160" spans="4:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D160" s="5"/>
     </row>
-    <row r="161" spans="4:4" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="4:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D161" s="5"/>
     </row>
-    <row r="162" spans="4:4" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="4:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D162" s="5"/>
     </row>
-    <row r="163" spans="4:4" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="4:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D163" s="5"/>
-    </row>
-    <row r="164" spans="4:4" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="F163" s="6"/>
+      <c r="I163" s="6"/>
+    </row>
+    <row r="164" spans="4:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D164" s="5"/>
     </row>
-    <row r="165" spans="4:4" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="4:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D165" s="5"/>
     </row>
-    <row r="166" spans="4:4" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="4:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="4:4" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="4:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="4:4" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="4:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D168" s="5"/>
     </row>
-    <row r="169" spans="4:4" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="4:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D169" s="5"/>
     </row>
-    <row r="170" spans="4:4" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="4:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D170" s="5"/>
     </row>
-    <row r="171" spans="4:4" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="4:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D171" s="5"/>
     </row>
-    <row r="172" spans="4:4" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="4:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D172" s="5"/>
     </row>
-    <row r="173" spans="4:4" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="4:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D173" s="5"/>
     </row>
-    <row r="174" spans="4:4" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="4:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D174" s="5"/>
     </row>
-    <row r="175" spans="4:4" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="4:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D175" s="5"/>
     </row>
-    <row r="176" spans="4:4" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="4:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D176" s="5"/>
     </row>
-    <row r="177" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D177" s="5"/>
     </row>
-    <row r="178" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D178" s="5"/>
     </row>
-    <row r="179" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D179" s="5"/>
-      <c r="E179" s="6"/>
-    </row>
-    <row r="180" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="180" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D180" s="5"/>
     </row>
-    <row r="181" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D181" s="5"/>
     </row>
-    <row r="182" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D182" s="5"/>
     </row>
-    <row r="183" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D183" s="5"/>
     </row>
-    <row r="184" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D184" s="5"/>
     </row>
-    <row r="185" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D185" s="5"/>
     </row>
-    <row r="186" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D186" s="5"/>
-    </row>
-    <row r="187" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E186" s="6"/>
+    </row>
+    <row r="187" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D187" s="5"/>
     </row>
-    <row r="188" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D188" s="5"/>
     </row>
-    <row r="189" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D189" s="5"/>
     </row>
-    <row r="190" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D190" s="5"/>
     </row>
-    <row r="191" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D191" s="5"/>
     </row>
-    <row r="192" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D192" s="5"/>
     </row>
-    <row r="193" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D193" s="5"/>
     </row>
-    <row r="194" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D194" s="5"/>
     </row>
-    <row r="195" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D195" s="5"/>
     </row>
-    <row r="196" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D196" s="5"/>
     </row>
-    <row r="197" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D198" s="5"/>
     </row>
-    <row r="199" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D199" s="5"/>
     </row>
-    <row r="200" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D200" s="5"/>
     </row>
-    <row r="201" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D201" s="5"/>
     </row>
-    <row r="202" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D202" s="5"/>
     </row>
-    <row r="203" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D203" s="5"/>
     </row>
-    <row r="204" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D204" s="5"/>
     </row>
-    <row r="205" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D205" s="5"/>
     </row>
-    <row r="206" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D206" s="5"/>
-      <c r="E206" s="6"/>
-    </row>
-    <row r="207" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="207" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D207" s="5"/>
     </row>
-    <row r="208" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D208" s="5"/>
     </row>
-    <row r="209" spans="4:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D209" s="5"/>
     </row>
-    <row r="210" spans="4:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D210" s="5"/>
     </row>
-    <row r="211" spans="4:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D211" s="5"/>
     </row>
-    <row r="212" spans="4:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D212" s="5"/>
     </row>
-    <row r="213" spans="4:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D213" s="5"/>
-    </row>
-    <row r="214" spans="4:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E213" s="6"/>
+    </row>
+    <row r="214" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D214" s="5"/>
     </row>
-    <row r="215" spans="4:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D215" s="5"/>
     </row>
-    <row r="216" spans="4:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D216" s="5"/>
     </row>
-    <row r="217" spans="4:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D217" s="5"/>
     </row>
-    <row r="218" spans="4:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D218" s="5"/>
     </row>
-    <row r="219" spans="4:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D219" s="5"/>
     </row>
-    <row r="220" spans="4:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D220" s="5"/>
-      <c r="E220" s="12"/>
-      <c r="F220" s="6"/>
-      <c r="I220" s="6"/>
-    </row>
-    <row r="221" spans="4:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="221" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D221" s="5"/>
     </row>
-    <row r="222" spans="4:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D222" s="5"/>
     </row>
-    <row r="223" spans="4:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D223" s="5"/>
     </row>
-    <row r="224" spans="4:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D224" s="5"/>
     </row>
-    <row r="225" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D225" s="5"/>
     </row>
-    <row r="226" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D226" s="5"/>
     </row>
-    <row r="227" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D227" s="5"/>
-    </row>
-    <row r="228" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E227" s="12"/>
+      <c r="F227" s="6"/>
+      <c r="I227" s="6"/>
+    </row>
+    <row r="228" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D228" s="5"/>
     </row>
-    <row r="229" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D229" s="5"/>
     </row>
-    <row r="230" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D230" s="5"/>
-      <c r="E230" s="6"/>
-      <c r="J230" s="13"/>
-      <c r="K230" s="13"/>
-    </row>
-    <row r="231" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="231" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D231" s="5"/>
     </row>
-    <row r="232" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D232" s="5"/>
     </row>
-    <row r="233" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D233" s="5"/>
     </row>
-    <row r="234" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D234" s="5"/>
     </row>
-    <row r="235" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D235" s="5"/>
     </row>
-    <row r="236" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D236" s="5"/>
     </row>
-    <row r="237" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D237" s="5"/>
-    </row>
-    <row r="238" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E237" s="6"/>
+      <c r="J237" s="13"/>
+      <c r="K237" s="13"/>
+    </row>
+    <row r="238" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D238" s="5"/>
     </row>
-    <row r="239" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D239" s="5"/>
     </row>
-    <row r="240" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D240" s="5"/>
     </row>
-    <row r="241" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D241" s="5"/>
     </row>
-    <row r="242" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D242" s="5"/>
     </row>
-    <row r="243" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D243" s="5"/>
     </row>
-    <row r="244" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D244" s="5"/>
     </row>
-    <row r="245" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D245" s="5"/>
     </row>
-    <row r="246" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D246" s="5"/>
     </row>
-    <row r="247" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D247" s="5"/>
-      <c r="E247" s="6"/>
-    </row>
-    <row r="248" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="248" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D248" s="5"/>
     </row>
-    <row r="249" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D249" s="5"/>
     </row>
-    <row r="250" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D250" s="5"/>
     </row>
-    <row r="251" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D251" s="5"/>
     </row>
-    <row r="252" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D252" s="5"/>
     </row>
-    <row r="253" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D253" s="5"/>
     </row>
-    <row r="254" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D254" s="5"/>
-    </row>
-    <row r="255" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E254" s="6"/>
+    </row>
+    <row r="255" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D255" s="5"/>
     </row>
-    <row r="256" spans="4:5" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="4:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D256" s="5"/>
     </row>
-    <row r="257" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="4:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D257" s="5"/>
     </row>
-    <row r="258" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="4:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D258" s="5"/>
     </row>
-    <row r="259" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="4:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D259" s="5"/>
     </row>
-    <row r="260" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="4:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D260" s="5"/>
     </row>
-    <row r="261" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="4:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D261" s="5"/>
     </row>
-    <row r="262" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="4:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D262" s="5"/>
-      <c r="J262" s="13"/>
-    </row>
-    <row r="263" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="263" spans="4:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D263" s="5"/>
     </row>
-    <row r="264" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="4:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D264" s="5"/>
     </row>
-    <row r="265" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="4:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D265" s="5"/>
     </row>
-    <row r="266" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="4:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D266" s="5"/>
     </row>
-    <row r="267" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="4:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D267" s="5"/>
     </row>
-    <row r="268" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="4:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D268" s="5"/>
     </row>
-    <row r="269" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="4:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D269" s="5"/>
-      <c r="F269" s="6"/>
-      <c r="I269" s="6"/>
-      <c r="J269" s="9"/>
-      <c r="K269" s="9"/>
-    </row>
-    <row r="270" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="J269" s="13"/>
+    </row>
+    <row r="270" spans="4:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D270" s="5"/>
     </row>
-    <row r="271" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="4:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D271" s="5"/>
-      <c r="E271" s="6"/>
-    </row>
-    <row r="272" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="272" spans="4:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D272" s="5"/>
-      <c r="E272" s="6"/>
-      <c r="F272" s="6"/>
-      <c r="I272" s="6"/>
-    </row>
-    <row r="273" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="273" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D273" s="5"/>
-      <c r="E273"/>
-      <c r="F273"/>
-      <c r="G273"/>
-      <c r="H273"/>
-      <c r="I273"/>
-    </row>
-    <row r="274" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="274" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D274" s="5"/>
-      <c r="E274"/>
-      <c r="F274"/>
-      <c r="G274"/>
-      <c r="H274"/>
-      <c r="I274"/>
-      <c r="J274" s="9"/>
-    </row>
-    <row r="275" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="275" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D275" s="5"/>
-      <c r="E275"/>
-      <c r="F275"/>
-      <c r="G275"/>
-      <c r="H275"/>
-      <c r="I275"/>
-    </row>
-    <row r="276" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="276" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D276" s="5"/>
-    </row>
-    <row r="277" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="F276" s="6"/>
+      <c r="I276" s="6"/>
+      <c r="J276" s="9"/>
+      <c r="K276" s="9"/>
+    </row>
+    <row r="277" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D277" s="5"/>
-      <c r="J277" s="9"/>
-      <c r="K277" s="9"/>
-    </row>
-    <row r="278" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="278" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D278" s="5"/>
-    </row>
-    <row r="279" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E278" s="6"/>
+    </row>
+    <row r="279" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D279" s="5"/>
       <c r="E279" s="6"/>
-    </row>
-    <row r="280" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="F279" s="6"/>
+      <c r="I279" s="6"/>
+    </row>
+    <row r="280" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D280" s="5"/>
-    </row>
-    <row r="281" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E280"/>
+      <c r="F280"/>
+      <c r="G280"/>
+      <c r="H280"/>
+      <c r="I280"/>
+    </row>
+    <row r="281" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D281" s="5"/>
-    </row>
-    <row r="282" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E281"/>
+      <c r="F281"/>
+      <c r="G281"/>
+      <c r="H281"/>
+      <c r="I281"/>
+      <c r="J281" s="9"/>
+    </row>
+    <row r="282" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D282" s="5"/>
-    </row>
-    <row r="283" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E282"/>
+      <c r="F282"/>
+      <c r="G282"/>
+      <c r="H282"/>
+      <c r="I282"/>
+    </row>
+    <row r="283" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D283" s="5"/>
     </row>
-    <row r="284" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D284" s="5"/>
       <c r="J284" s="9"/>
       <c r="K284" s="9"/>
     </row>
-    <row r="285" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D285" s="5"/>
-      <c r="J285" s="9"/>
-      <c r="K285" s="9"/>
-    </row>
-    <row r="286" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="286" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D286" s="5"/>
-    </row>
-    <row r="287" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E286" s="6"/>
+    </row>
+    <row r="287" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D287" s="5"/>
-      <c r="J287" s="9"/>
-      <c r="K287" s="9"/>
-    </row>
-    <row r="288" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="288" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D288" s="5"/>
     </row>
-    <row r="289" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D289" s="5"/>
     </row>
-    <row r="290" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D290" s="5"/>
     </row>
-    <row r="291" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D291" s="5"/>
-    </row>
-    <row r="292" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="J291" s="9"/>
+      <c r="K291" s="9"/>
+    </row>
+    <row r="292" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D292" s="5"/>
-    </row>
-    <row r="293" spans="4:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="J292" s="9"/>
+      <c r="K292" s="9"/>
+    </row>
+    <row r="293" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D293" s="5"/>
-      <c r="J293" s="9"/>
-      <c r="K293" s="9"/>
+    </row>
+    <row r="294" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D294" s="5"/>
+      <c r="J294" s="9"/>
+      <c r="K294" s="9"/>
+    </row>
+    <row r="295" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D295" s="5"/>
+    </row>
+    <row r="296" spans="4:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D296" s="5"/>
+    </row>
+    <row r="297" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D297" s="5"/>
+    </row>
+    <row r="298" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D298" s="5"/>
+    </row>
+    <row r="299" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D299" s="5"/>
+    </row>
+    <row r="300" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D300" s="5"/>
+      <c r="J300" s="9"/>
+      <c r="K300" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M293" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="cut it"/>
-        <filter val="cut ut"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M297" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>